--- a/Crypto/Labs/Lab_9/1_2.xlsx
+++ b/Crypto/Labs/Lab_9/1_2.xlsx
@@ -159,7 +159,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10527924" y="506504"/>
+          <a:off x="10527924" y="506503"/>
           <a:ext cx="3390900" cy="1222000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="b">
-        <f>_xlfn.XOR(F3,D3,C3)</f>
+        <f t="shared" ref="H4:H10" si="3">_xlfn.XOR(F3,D3,C3)</f>
         <v>0</v>
       </c>
     </row>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="5" t="b">
-        <f t="shared" ref="H5:H10" si="3">_xlfn.XOR(F4,D4,C4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1003,13 +1003,16 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="17.25">
@@ -1814,7 +1817,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{00AC00C6-00AC-4D20-B34D-002300E5006A}">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{006800BD-00BE-4EED-ABE0-00E3006A00CC}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1831,7 +1834,7 @@
           <xm:sqref>B3:E3 D4:E34 B4:B34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{008600A9-0044-48F9-96FA-008B00500019}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{00A60046-004B-4554-8FF1-00FC000F00FD}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1848,7 +1851,7 @@
           <xm:sqref>C2:E2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{008E00E4-00DB-4FF4-BC65-001400010050}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{00150088-0039-4D9B-9388-0086007B00AC}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1865,7 +1868,7 @@
           <xm:sqref>C4:C34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{00EC00B2-0082-4A82-A6B8-00E8004500B1}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{007B00D8-0008-46AF-9497-003B0056000C}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1882,7 +1885,7 @@
           <xm:sqref>B2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{009A0034-0002-4081-A168-003C00D50068}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{007700C7-0078-477A-BBB6-00BB00BC0072}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1899,7 +1902,7 @@
           <xm:sqref>F2:G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{005400D3-00CA-4C03-BF6C-002100BF0053}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{00BA0082-00C8-410E-B181-008200C30087}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1916,7 +1919,7 @@
           <xm:sqref>F3:F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{0074004E-00AC-4AC2-ADB5-00C800E700CC}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{004E00F3-0054-4042-AB99-00CC00090043}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>

--- a/Crypto/Labs/Lab_9/1_2.xlsx
+++ b/Crypto/Labs/Lab_9/1_2.xlsx
@@ -1,14 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artem/Documents/Labs/3 курс/StudFiles/Crypto/Labs/Lab_9/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -18,49 +32,49 @@
     <t>№</t>
   </si>
   <si>
-    <t xml:space="preserve">4 ячейка</t>
+    <t>4 ячейка</t>
   </si>
   <si>
-    <t xml:space="preserve">3 ячейка</t>
+    <t>3 ячейка</t>
   </si>
   <si>
-    <t xml:space="preserve">2 ячейка</t>
+    <t>2 ячейка</t>
   </si>
   <si>
-    <t xml:space="preserve">1 ячейка</t>
+    <t>1 ячейка</t>
   </si>
   <si>
-    <t xml:space="preserve">0 ячейка</t>
+    <t>0 ячейка</t>
   </si>
   <si>
     <t>Сдвиг</t>
   </si>
   <si>
-    <t xml:space="preserve">4, 9, 18</t>
+    <t>4, 9, 18</t>
   </si>
   <si>
-    <t xml:space="preserve">1, 2, 5, 8, 11, 15, 16, 20, 23, 26, 29, 30</t>
+    <t>1, 2, 5, 8, 11, 15, 16, 20, 23, 26, 29, 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13.95"/>
+      <color indexed="64"/>
       <name val="Times New Roman"/>
-      <color indexed="64"/>
-      <sz val="13.950000"/>
     </font>
     <font>
+      <sz val="13.95"/>
       <name val="Times New Roman"/>
-      <sz val="13.950000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -87,41 +101,119 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -132,7 +224,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -148,13 +240,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3" descr="битовый РСЛОС" hidden="0"/>
+        <xdr:cNvPr id="4" name="Рисунок 3" descr="битовый РСЛОС"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -173,291 +265,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -660,24 +469,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85">
-      <selection activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" min="1" max="1" style="1" width="9.140625"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="10.28515625"/>
-    <col bestFit="1" min="3" max="8" style="1" width="9.140625"/>
+    <col min="1" max="1" width="9.1640625" style="1" bestFit="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.1640625" style="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K1">
         <v>1</v>
       </c>
@@ -685,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="34.5">
+    <row r="2" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,7 +526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="17.25">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -746,7 +557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="17.25">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -779,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="17.25">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -812,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="17.25">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -851,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="17.25">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -892,7 +703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="17.25">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -925,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="17.25">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -970,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="17.25">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1003,16 +814,19 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="17.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1045,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="17.25">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1078,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="17.25">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1111,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="17.25">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1136,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f>F14</f>
         <v>1</v>
       </c>
       <c r="H14" s="5" t="b">
@@ -1144,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="17.25">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1177,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="17.25">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1210,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="17.25">
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1243,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="17.25">
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1276,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="17.25">
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -1309,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="17.25">
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -1342,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="17.25">
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1375,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="17.25">
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -1408,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="17.25">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -1441,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="17.25">
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -1474,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="17.25">
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -1507,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="17.25">
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -1540,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="17.25">
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -1573,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="17.25">
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -1606,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="17.25">
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -1639,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="17.25">
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -1672,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="17.25">
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -1705,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="17.25">
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -1738,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="17.25">
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -1771,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="17.25">
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -1805,135 +1619,43 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
-  <headerFooter/>
+  <conditionalFormatting sqref="B3:E3 D4:E34 B4:B34">
+    <cfRule type="cellIs" dxfId="6" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E2">
+    <cfRule type="cellIs" dxfId="5" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C34">
+    <cfRule type="cellIs" dxfId="4" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G2">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F34">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G34">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{00AC00C6-00AC-4D20-B34D-002300E5006A}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B3:E3 D4:E34 B4:B34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{008600A9-0044-48F9-96FA-008B00500019}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:E2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{008E00E4-00DB-4FF4-BC65-001400010050}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C4:C34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{00EC00B2-0082-4A82-A6B8-00E8004500B1}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{009A0034-0002-4081-A168-003C00D50068}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F2:G2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{005400D3-00CA-4C03-BF6C-002100BF0053}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F3:F34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{0074004E-00AC-4AC2-ADB5-00C800E700CC}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G3:G34</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>